--- a/Praca magisterska/testy.xlsx
+++ b/Praca magisterska/testy.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\annap\Documents\UNI\masters\Praca magisterska\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36078E5D-DB89-4B9F-B9DA-52DEEC43B619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291608A2-8FB2-4331-934D-DFD6579D9E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{D880F8F0-0502-42C4-AF59-EACA8E54CEE9}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="10125" windowHeight="15585" activeTab="1" xr2:uid="{D880F8F0-0502-42C4-AF59-EACA8E54CEE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="159">
   <si>
     <t>Educational:</t>
   </si>
@@ -354,6 +355,165 @@
   </si>
   <si>
     <t>Piekarnia Bagietka</t>
+  </si>
+  <si>
+    <t>Keyboard</t>
+  </si>
+  <si>
+    <t>NVDA</t>
+  </si>
+  <si>
+    <t>details</t>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>article</t>
+  </si>
+  <si>
+    <t>Politechnika Warszawska</t>
+  </si>
+  <si>
+    <t>https://www.pw.edu.pl/</t>
+  </si>
+  <si>
+    <t>https://www.uva.nl/</t>
+  </si>
+  <si>
+    <t>University of Amsterdam</t>
+  </si>
+  <si>
+    <t>KCP</t>
+  </si>
+  <si>
+    <t>https://www.kcp.pl/</t>
+  </si>
+  <si>
+    <t>Forms</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Responsive</t>
+  </si>
+  <si>
+    <t>Reddit</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>Big</t>
+  </si>
+  <si>
+    <t>UberEats</t>
+  </si>
+  <si>
+    <t>https://www.ubereats.com/</t>
+  </si>
+  <si>
+    <t>Nomad Play House</t>
+  </si>
+  <si>
+    <t>Osnabrueck Halle</t>
+  </si>
+  <si>
+    <t>donate</t>
+  </si>
+  <si>
+    <t>volunteer</t>
+  </si>
+  <si>
+    <t>1. Nie wszystkie elementy są reachable, np list oststnich wyszukiwańx1. 2. Focus pojajwia się na elemenrcie którego nie widać, a przeniosi do strony logowania x2. 3. Focus pojawia się na elemencie, który nie jest interaktywny x1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Focus pojajwia się na elemenrcie którego nie widać x6. 2. Brak widocznego focusu na elementach interaktywnych x72. 3. </t>
+  </si>
+  <si>
+    <t>1. Focus pojajwia się na elemenrcie którego nie widać x2.</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Formularz wyszukiwania nie do końca pasuje do mniejszy ch ekranów x1. 2. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Nie wszystkie elementy są reachable (rozwijane elementy menu) x3. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Nie wszystkie elementy są reachable (info icon tooltip). 2. Popupy  z info producenta nie są reachable.  </t>
+  </si>
+  <si>
+    <t>1. Nieoczekiwany focus trap z którego nie da się wyjść po otwarciu zdjęcia. 2. Nie moża ominąć otwarcia zdjęcia. 3. Nie można ręcznie schować toolipa.</t>
+  </si>
+  <si>
+    <t>1. Brak linku do ominięcia headera. 2. Brak focusu na dropdownach i popupach. 3. Brak focus trap na popupie z notyfikcajmi, user menu.  4. Możliwość otwarcia błędnego elementu poprzez użycie klwaitury na menu użytkwonika. 5. Brak aktualizaji menu baneru reklamowe podczas nawigacji. 6. Brak wdocznego focusu na elementach kisty które mają obrazek jako link.7. Błędny dostęp do elementów manu, które powinny być ukryte. 8. Unreachable button do przejścia na początek strony.</t>
+  </si>
+  <si>
+    <t>1. Nie wszstie elementy mieszczą się na małym ekranie (tekst na banerze). 2. Po otwarciu menu użytkownika moża cały czas scrollowac niewidoczą stronę główną.</t>
+  </si>
+  <si>
+    <t>Po otwarciu menu użytkownika moża cały czas scrollowac niewidoczą stronę główną.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Po otwarciu menu użytkownika moża cały czas scrollowac niewidoczą stronę główną. </t>
+  </si>
+  <si>
+    <t>1. Brak linku do ominięcia headera.  Brak focusu na strzałkach do nawigacji galerii. Focus trap na wszystich parametrach nawet po ich zaknięciu. Brak focusu I możliwości interakcji z elementem interaktywnym. Nie reachable tooltip z informacją. Błędny dostęp do elementów manu, które powinny być ukryte.</t>
+  </si>
+  <si>
+    <t>Brak linku do ominięcia headera.  Brak focusu na strzałkach nawigacji. Nieporaawna nawigacja po ankiecie zadowolenia. Brak wdocznego focusu na elementach kisty które mają obrazek jako link. Błędny dostęp do elementów manu, które powinny być ukryte.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bardzo przejrzysta nawigacja i focus</t>
+  </si>
+  <si>
+    <t>passed</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Brak wsparcia</t>
+  </si>
+  <si>
+    <t>nie reachable dropdowny menu. Focus nie zawsze na linku/e;ementcie interaktynym, tylko obok</t>
+  </si>
+  <si>
+    <t>Niektóre elementy interaktywne są zduplikowane.</t>
+  </si>
+  <si>
+    <t>Focus I możliwość interakcji z elementami/linkami, kóre nie są intekatywne podczas użycia myszki.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niektóre teksty sa przycięte. Możliwość scrollowania storny, mimo że otwarte jest menu. </t>
+  </si>
+  <si>
+    <t>Brak focus trap na dropdownach menu.</t>
+  </si>
+  <si>
+    <t>Niektóe elementy nie powinny mieć focusu, bo są nie iteraktywne.</t>
+  </si>
+  <si>
+    <t>Ważne infroamcje są pomnirjszone aby pokazać nieważy obrazek.</t>
   </si>
 </sst>
 </file>
@@ -439,13 +599,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -763,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B8BCF4F-559B-4BC2-A51B-45191423E3A5}">
   <dimension ref="A1:C69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="F70" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1314,4 +1483,934 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A744A367-74A6-4EC3-B153-D71CD0BA8117}">
+  <dimension ref="A1:G104"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B29" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="8"/>
+    <col min="5" max="6" width="6.28515625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" ht="165" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="195" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="195" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="195" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="330" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="180" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="210" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" s="2" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>33</v>
+      </c>
+      <c r="B51" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>115</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>40</v>
+      </c>
+      <c r="B59" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>96</v>
+      </c>
+      <c r="B62" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>46</v>
+      </c>
+      <c r="B65" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>41</v>
+      </c>
+      <c r="B70" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>120</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>83</v>
+      </c>
+      <c r="B76" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>36</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>70</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>68</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>105</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>127</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>62</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>64</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>37</v>
+      </c>
+      <c r="B96" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>73</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>31</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B102" r:id="rId1" xr:uid="{203F60EB-E190-44EB-93E3-C793AD6CF93D}"/>
+    <hyperlink ref="B91" r:id="rId2" xr:uid="{258DD41C-8CFF-4031-844D-F5B08567D732}"/>
+    <hyperlink ref="B92" r:id="rId3" xr:uid="{3C1A812F-2A55-4F23-A193-9D2EF750B96A}"/>
+    <hyperlink ref="B83" r:id="rId4" xr:uid="{1D809F52-117C-4F9E-A35A-C06042D844BA}"/>
+    <hyperlink ref="B82" r:id="rId5" xr:uid="{878DF8FE-191B-4F7C-AB54-DF32645C510C}"/>
+    <hyperlink ref="B93" r:id="rId6" xr:uid="{DE748172-9A78-49F9-93BC-8442941D3623}"/>
+    <hyperlink ref="B81" r:id="rId7" xr:uid="{A6C144C8-DAB2-4D13-824F-8899E34448DE}"/>
+    <hyperlink ref="B99" r:id="rId8" xr:uid="{D4895487-BD3E-4B03-890A-2BB8EEB9932E}"/>
+    <hyperlink ref="B19" r:id="rId9" xr:uid="{94FB7C1E-7A47-4E64-A5F5-F392A0AE06BF}"/>
+    <hyperlink ref="B26" r:id="rId10" xr:uid="{8E23D64A-0226-401F-BC62-52C2624142C0}"/>
+    <hyperlink ref="B23" r:id="rId11" xr:uid="{AB21F526-D710-4C79-9D9A-5FE63B6C0363}"/>
+    <hyperlink ref="B88" r:id="rId12" xr:uid="{CE648B20-93F2-4488-BADB-485A0D191E4E}"/>
+    <hyperlink ref="B29" r:id="rId13" xr:uid="{6EA4D234-F8C0-4810-ADFF-8B4B4AD0FE8D}"/>
+    <hyperlink ref="B54" r:id="rId14" xr:uid="{99C3D57E-7D2E-49A5-908B-0F05B9E6B69F}"/>
+    <hyperlink ref="B73" r:id="rId15" xr:uid="{3D8F1272-B9BF-4A44-A0B9-ABC804D306DB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
+</worksheet>
 </file>
--- a/Praca magisterska/testy.xlsx
+++ b/Praca magisterska/testy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\annap\Documents\UNI\masters\Praca magisterska\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291608A2-8FB2-4331-934D-DFD6579D9E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B16FE86-A02B-46DD-B9D5-C67E2E7A0BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="10125" windowHeight="15585" activeTab="1" xr2:uid="{D880F8F0-0502-42C4-AF59-EACA8E54CEE9}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="16695" windowHeight="15585" activeTab="1" xr2:uid="{D880F8F0-0502-42C4-AF59-EACA8E54CEE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="214">
   <si>
     <t>Educational:</t>
   </si>
@@ -384,12 +384,6 @@
     <t>University of Amsterdam</t>
   </si>
   <si>
-    <t>KCP</t>
-  </si>
-  <si>
-    <t>https://www.kcp.pl/</t>
-  </si>
-  <si>
     <t>Forms</t>
   </si>
   <si>
@@ -483,9 +477,6 @@
     <t>Brak linku do ominięcia headera.  Brak focusu na strzałkach nawigacji. Nieporaawna nawigacja po ankiecie zadowolenia. Brak wdocznego focusu na elementach kisty które mają obrazek jako link. Błędny dostęp do elementów manu, które powinny być ukryte.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Bardzo przejrzysta nawigacja i focus</t>
-  </si>
-  <si>
     <t>passed</t>
   </si>
   <si>
@@ -514,6 +505,180 @@
   </si>
   <si>
     <t>Ważne infroamcje są pomnirjszone aby pokazać nieważy obrazek.</t>
+  </si>
+  <si>
+    <t>Bardzo przejrzysta nawigacja i focus</t>
+  </si>
+  <si>
+    <t>Brak focusu na na linku do kanału pod filmem. Brak focus trap na rozwijamyn menu pod filmem. Możliwość kliknięcia na niewidzalny element (notyfikacja -&gt; więcej info kropki). Brak focus trap na notyfikacjach/dodaj film/usermenu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brak focusu na nazwie/linku do filmu. Dwa elementy z tym samym linkiem obok siebie, z czego jeden nie ma focusu. </t>
+  </si>
+  <si>
+    <t>Anchor do więcej filmów od autora, nie przekierowuje focusu. Brak focus trap na dropdown manu ustawienia filmu. Mało widoczny focus na (…więcej) rozwinięcie info o filmie. Kliknięcie na datę dodoania komentarza odświeża strone. Kliknięcie na dodanie emotikonu do komentarza nie przenosi focusu do dropowna. Bardzo mało widoczy focus na wyborze typu emotikona.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Automatyczna transkrypcja nie na wszystkich filmach.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rozwinięcei rozszerzonego menu nie przenosi focusu do menu. Niwidczy element wybrany na klawiaturze który przenosi do strony logowania. Brak focus trap na otwearym rozszerzonym neu, które przysyłania treść strony i dalsza strona i aktywne liniki nie są widoczne. Aktywownayny i niewidoczy link który przenosi do niesprecyzownaego akrtykułu z przed 5 dni. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dwa linki obok siebie które przekierowują do tego samego (zdjęcie i tytuł). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kliknięcie na wybór państwa odświeża strone zmaiast otworzyć menu. Brak focusu na buttonie do otwieraia menu. Nie można przejść do buttonó subskrybcji i logowania. Brak linku do ominięcia menu. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otwarcie popupu z komentarzami nie przenosi focusu i nie ma focus trap. Brak focusu na przycyska do subskrypcji w popupie komantrzy. Focus na nieistniejącym elemencie. Brak linku do ominięcia menu. </t>
+  </si>
+  <si>
+    <t>Brak focusu na buttonie szukaj. Brak możliwości kliknięcja notyfikacji i menu użytkonika. Brak możliwości otwarcia submenus w headerze. Nie można kliknąć elem,etu "więcej" w headerzer. Ominięcie linku w pogodzie. Focsu na linku któego nie ma. Brak linku do minięcia menu. Brak focusu na link do autora posta. Brak możliwości kliknięcia na wybór maista.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brak focusu na buttonie szukaj. Niedostępny button menu użytkownika. Niedostępne buttony rozwijania dropdownów w menu. Focus na linkach które nie istnieją. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brak transkrypcji fimów. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brak walidacji empty spaces. </t>
+  </si>
+  <si>
+    <t>Brak walidacji niedozwolonej wartości donacji (mimo że jest ionfo o tym że 10$ jest min).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brak linku powrotnego. </t>
+  </si>
+  <si>
+    <t>Dropdown menus w headerze się nie otwierają a jednak focus na nich jest, mimo że ich nie widać. Nie ma informacji że to są elementy sub menu so otwieralne. Niedostępny button wyszukiwania. Brak focusu na dropdownie do wyboru szkolenia. Dwa linki obok siebie prowadzące do tego soamego miejsca (link i obrazek wiadomosci). Fokus na niewidocznym linku. Brak focusuy na elementach wybrancyh. Odwrócona kolejność focusu na stopce. Niedostępny button chatu. Brak focus trap na chacie. Niesostępne przyciska na czacie.  Brak linku do ominięcia headera.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niedostępny button wyboru częstości i predefiniowanej wysokości donacji. Focus na nieklikancyh elementach. Brak linku do ominięcia headera.  </t>
+  </si>
+  <si>
+    <t>Dropdown menus w headerze się nie otwierają a jednak focus na nich jest, mimo że ich nie widać. Nie ma informacji że to są elementy sub menu so otwieralne. Niedostępny button wyszukiwania. Niedostępne buttony wyboru prdefiniowanych wartości donacji. Odwrócona kolejność focusu na stopce.  Brak linku do ominięcia headera.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brak focusu na linku do strou głównej. Niedostępne buttony zakłądek aktualności. Niedostępne linki niewidoczne aktualnie w karuzeli. Niewidoczy focsu na przeglądaniu zdjęć w mulitmediach. Brak focusu na filach w multimediach. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brak focusu na linku do strony głównej.  Niedostępne linki niewidoczne aktualnie w karuzeli. </t>
+  </si>
+  <si>
+    <t>Wilekość buttonu do zmiany strony w karuzzeli są za małe.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brak możliwości otworzenie menu. Buttony do zmiany strony karuzeli są za małe. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nazwy pól formularzy nie są statyczne, i znikają po wpisaniu czegoś. </t>
+  </si>
+  <si>
+    <t>Brak dynamicznej walidacji formularza (dopiero po submicie). Nie consisten walidacja, część default HTML część JS. Nazwy pól formularzy nie są statyczne, i znikają po wpisaniu czegoś.  Brak dokłądnych errorów walidacji. Brak użycia odpowiedniego typu pól (number, postcode).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brak focusu na linkach ze zdjęciem.  Niedostępne buttony. Brak linku do strony łównej. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niedostępne pole wyszukiwania. Niewidocze linki, ale z focusem. Brak focusu na linkach z obrazkami. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niedostępne buttony do wybrania predefiniownych wartości donacji. Niedostępne buttony. Brak linku do strony łównej. Brak focusu na buttonach donate, x3. Brak focusu na linkach w stopce. </t>
+  </si>
+  <si>
+    <t>Focus na niewidocznych linkach.</t>
+  </si>
+  <si>
+    <t>Opening website in the mobile version triggers opening of the login form.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brak linku do ominięcia menu. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brak wiadomości błędu. Nazwa pola znika po wpisaniu wartości. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brak przeniesienia focusu na menu po jego otworzeniu. Brak focus trap na menu. Brak buttona do zamknięcia menu. Niedostępny element wyboru czaus dostawy. Niepoprawna kolejność wyboryu miasta. Brak linku do ominięcia headera. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niedostępne buttony do wyboru typu miejśca (miasto, plaża, etc). Brak focusu na buttoni e"discover homes". </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nazwa pola znika po wpisaniu wartości. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dwa linki obok siebie prowadzące do tego samego miejsca. Button tylko dla klwaiaturey "skip to linkedin news" nie prowadzi do niczego. Brak focusu na wyborze osób w nowej wiadomości. Brak możliwości wybporu osoby. </t>
+  </si>
+  <si>
+    <t>PASSED!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Passed. Very good selection for the focus - bright yellow. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nazwa pola formularza znika po wpisaniu. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brak walidacji i errorów. Nazwa pola formularza znika po wpisaniu. </t>
+  </si>
+  <si>
+    <t>Mało widoczy focus na butonie "dla profesjonalistów". Brak focusu na specjalizacjach. Nieporawna kolejność w folrmularzu (skok do headera). Focus na linkach które nie są widoczne (dużo). Brak możliwości wyboru czy w gabinecie czy online. Brak focus trap na popupie. Brak linku do przejścia do głównej treści.</t>
+  </si>
+  <si>
+    <t>Popup nie ma focus trap. Niedostępne linki do pokazania więcej informacji. Brak linku do przejścia do głównej treści.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brak linku do przejścia do głównej treści. Niedostępne dropowny do wyboru miasta I specjalności. Mało widoczy focus na sugerowanych miastach. Popup nie ma focus trap. Niedostępny button w kalendarzy do przejści ado kolejnych dni. Mało widoczny focus na linku "pokaz więcej usług". Dropdown nie znika po wyjściu z niego. Niedostępny paginator. </t>
+  </si>
+  <si>
+    <t>CCC</t>
+  </si>
+  <si>
+    <t>https://ccc.eu/pl/</t>
+  </si>
+  <si>
+    <t>Placeholder w polu wyszukiwania nie mieście się na najmniejszy ekranie iPhone SE.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zupełny brak podświetlenia focusu. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na małych ekranach nazwa pola znika po wpisaniu wartości. </t>
+  </si>
+  <si>
+    <t>https://www.nomadplayhouse.org/</t>
+  </si>
+  <si>
+    <t>Menu nie do końca się mieści na długość.</t>
+  </si>
+  <si>
+    <t>Strona jest za szeroka na najmniejszym ekranie 375px.</t>
+  </si>
+  <si>
+    <t>Niektóre linki nie są dostępne. Brak linku do ominęcia headera.</t>
+  </si>
+  <si>
+    <t>Brak możliwości zamknięcia menu. Niedostępne przyciski w menu. Brak linku do ominęcia headera.</t>
+  </si>
+  <si>
+    <t>https://www.osnabrueckhalle.de/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Focus pojawia się na zamkniętym menu. Brak focusu na ikonie menu. Focus na niewidocznym linku. Mało widoczny focus na linkach które są obrazkami. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nazwa pola znika po wpisaniu wartości. Brak walidacji czy wisane wartości są poprawne. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niedostępna zakłądka "schools". Dwa linki prowadzące do jednego miejsca odobk siebie (zdjęcie I nazwisko). </t>
+  </si>
+  <si>
+    <t>Nazwa pola znika po wpisaniu wartości (search).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mało widoczny fous na zdjęciu użytwkonika. </t>
   </si>
 </sst>
 </file>
@@ -932,8 +1097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B8BCF4F-559B-4BC2-A51B-45191423E3A5}">
   <dimension ref="A1:C69"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="F70" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1489,18 +1654,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A744A367-74A6-4EC3-B153-D71CD0BA8117}">
   <dimension ref="A1:G104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B29" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="8"/>
-    <col min="5" max="6" width="6.28515625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="8"/>
+    <col min="3" max="3" width="33.5703125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="10" style="8" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1517,15 +1683,16 @@
         <v>107</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
+    </row>
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:7" s="2" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>42</v>
@@ -1544,16 +1711,16 @@
         <v>9</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
@@ -1561,16 +1728,16 @@
         <v>109</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>136</v>
-      </c>
       <c r="F5" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -1578,16 +1745,16 @@
         <v>108</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>135</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="195" hidden="1" x14ac:dyDescent="0.25">
@@ -1598,16 +1765,16 @@
         <v>98</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E7" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>136</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="195" hidden="1" x14ac:dyDescent="0.25">
@@ -1615,16 +1782,16 @@
         <v>109</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E8" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>136</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="195" hidden="1" x14ac:dyDescent="0.25">
@@ -1632,16 +1799,16 @@
         <v>108</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E9" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>136</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="330" hidden="1" x14ac:dyDescent="0.25">
@@ -1652,16 +1819,16 @@
         <v>11</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="180" hidden="1" x14ac:dyDescent="0.25">
@@ -1669,16 +1836,16 @@
         <v>109</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="210" hidden="1" x14ac:dyDescent="0.25">
@@ -1686,16 +1853,16 @@
         <v>108</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
@@ -1709,48 +1876,120 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>34</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>86</v>
       </c>
       <c r="B17" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>92</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C20" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:7" s="2" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -1760,7 +1999,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -1768,53 +2007,53 @@
         <v>14</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>109</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>108</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>114</v>
       </c>
@@ -1822,53 +2061,53 @@
         <v>113</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>109</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>108</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>111</v>
       </c>
@@ -1876,53 +2115,53 @@
         <v>112</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>109</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>108</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>52</v>
       </c>
@@ -1930,52 +2169,53 @@
         <v>53</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>109</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>108</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>158</v>
-      </c>
-    </row>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>1</v>
@@ -1986,22 +2226,58 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>39</v>
       </c>
       <c r="B37" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C37" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C38" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="180" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>108</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -2040,7 +2316,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" s="2" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>2</v>
       </c>
@@ -2050,58 +2326,166 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>35</v>
       </c>
       <c r="B48" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C48" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C49" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C50" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>33</v>
       </c>
       <c r="B51" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C51" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C52" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C53" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C55" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>108</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="58" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -2188,53 +2572,86 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>83</v>
       </c>
       <c r="B76" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C76" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G76" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G77" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" s="2" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -2242,33 +2659,70 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>36</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C81" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G81" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>70</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C82" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G82" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>68</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C83" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G83" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="1:7" s="2" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -2276,27 +2730,66 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="B86" t="s">
+        <v>203</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G86" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+      <c r="B87" t="s">
+        <v>208</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>105</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C88" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G88" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" s="2" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -2304,31 +2797,68 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G91" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>62</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C92" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G92" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>64</v>
+        <v>198</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G93" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="1:7" s="2" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>54</v>
       </c>
@@ -2338,58 +2868,163 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>37</v>
       </c>
       <c r="B96" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C96" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F96" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G96" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F97" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G97" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="F98" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G98" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>73</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C99" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="F99" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G99" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="F100" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G100" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="F101" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G101" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>31</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C102" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F102" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G102" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F103" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G103" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>132</v>
+        <v>130</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F104" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G104" s="8" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -2399,7 +3034,7 @@
     <hyperlink ref="B92" r:id="rId3" xr:uid="{3C1A812F-2A55-4F23-A193-9D2EF750B96A}"/>
     <hyperlink ref="B83" r:id="rId4" xr:uid="{1D809F52-117C-4F9E-A35A-C06042D844BA}"/>
     <hyperlink ref="B82" r:id="rId5" xr:uid="{878DF8FE-191B-4F7C-AB54-DF32645C510C}"/>
-    <hyperlink ref="B93" r:id="rId6" xr:uid="{DE748172-9A78-49F9-93BC-8442941D3623}"/>
+    <hyperlink ref="B54" r:id="rId6" xr:uid="{DE748172-9A78-49F9-93BC-8442941D3623}"/>
     <hyperlink ref="B81" r:id="rId7" xr:uid="{A6C144C8-DAB2-4D13-824F-8899E34448DE}"/>
     <hyperlink ref="B99" r:id="rId8" xr:uid="{D4895487-BD3E-4B03-890A-2BB8EEB9932E}"/>
     <hyperlink ref="B19" r:id="rId9" xr:uid="{94FB7C1E-7A47-4E64-A5F5-F392A0AE06BF}"/>
@@ -2407,8 +3042,8 @@
     <hyperlink ref="B23" r:id="rId11" xr:uid="{AB21F526-D710-4C79-9D9A-5FE63B6C0363}"/>
     <hyperlink ref="B88" r:id="rId12" xr:uid="{CE648B20-93F2-4488-BADB-485A0D191E4E}"/>
     <hyperlink ref="B29" r:id="rId13" xr:uid="{6EA4D234-F8C0-4810-ADFF-8B4B4AD0FE8D}"/>
-    <hyperlink ref="B54" r:id="rId14" xr:uid="{99C3D57E-7D2E-49A5-908B-0F05B9E6B69F}"/>
-    <hyperlink ref="B73" r:id="rId15" xr:uid="{3D8F1272-B9BF-4A44-A0B9-ABC804D306DB}"/>
+    <hyperlink ref="B73" r:id="rId14" xr:uid="{3D8F1272-B9BF-4A44-A0B9-ABC804D306DB}"/>
+    <hyperlink ref="B93" r:id="rId15" xr:uid="{F2CF9E38-18B6-4E7D-97B9-402C3D63579D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>

--- a/Praca magisterska/testy.xlsx
+++ b/Praca magisterska/testy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\annap\Documents\UNI\masters\Praca magisterska\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B16FE86-A02B-46DD-B9D5-C67E2E7A0BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6010ADCB-4927-420F-9F55-607CDFE9545D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="16695" windowHeight="15585" activeTab="1" xr2:uid="{D880F8F0-0502-42C4-AF59-EACA8E54CEE9}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{D880F8F0-0502-42C4-AF59-EACA8E54CEE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="230">
   <si>
     <t>Educational:</t>
   </si>
@@ -609,9 +609,6 @@
     <t xml:space="preserve"> Nazwa pola znika po wpisaniu wartości. </t>
   </si>
   <si>
-    <t xml:space="preserve">Dwa linki obok siebie prowadzące do tego samego miejsca. Button tylko dla klwaiaturey "skip to linkedin news" nie prowadzi do niczego. Brak focusu na wyborze osób w nowej wiadomości. Brak możliwości wybporu osoby. </t>
-  </si>
-  <si>
     <t>PASSED!</t>
   </si>
   <si>
@@ -679,6 +676,57 @@
   </si>
   <si>
     <t xml:space="preserve">Mało widoczny fous na zdjęciu użytwkonika. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nie można zmienić głośności. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ikona menu nie mieści się na ekranie. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Button "załóż konto" nie zawsze mieści się na ekranie. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cofanie focusu nie pokazuje dropdownów. Ikona home jest za mała I nie ma opisu tekstowego. Pusty popup. Niedostępny przycisk do otwarcia popupu. Brak focus trap na popupch. </t>
+  </si>
+  <si>
+    <t>Zbędny selektor sposobu składani awnisku.</t>
+  </si>
+  <si>
+    <t>Breadcrumb doesn’t state current state.</t>
+  </si>
+  <si>
+    <t>Breadcrumbs do not have proper tag. Collapsed elements do not have collaped or expanded tag. Navigacja w stopce nie ma tagu nav.Nieporawne użycie h1.</t>
+  </si>
+  <si>
+    <t>Navigacja w stopce nie ma tagu nav.Nieporawne użycie h1. Niepoprawny opis button zamknij.</t>
+  </si>
+  <si>
+    <t>Breadcrumbs do not have proper tag. Wrong usage of h2 heading.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Catouseld doesn't say that is is a carousel. Navigacja w stopce nie ma tagu nav. Nieporawne użycie h1. Info icon has no alt text. </t>
+  </si>
+  <si>
+    <t>Wrong usage of h2 heading. Missing heading on the site title. Navigation does not indicate current page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dwa linki obok siebie prowadzące do tego samego miejsca. Button tylko dla klwaiaturey "skip to linkedin news" nie prowadzi do niczego. Brak focusu na wyborze osób w nowej wiadomości. Brak możliwości wybporu osoby. Side navigation dropdowns do no tfit on the page. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time 1w is not read properly as week. Bardzo dokładne opisanie elenetów na stronie. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabs are in wron order. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collapsable button doent say collapesed/expanded. No alt text of the user picture. Inaccessible popup/tooltio on the user info./  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No error message that the comment to be posterd is emty. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brak focusu. </t>
   </si>
 </sst>
 </file>
@@ -1654,8 +1702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A744A367-74A6-4EC3-B153-D71CD0BA8117}">
   <dimension ref="A1:G104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2287,33 +2335,105 @@
       <c r="B40" t="s">
         <v>17</v>
       </c>
+      <c r="C40" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>109</v>
       </c>
+      <c r="C41" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C42" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>45</v>
       </c>
       <c r="B43" t="s">
         <v>16</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C44" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>108</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="47" spans="1:7" s="2" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -2334,7 +2454,7 @@
         <v>18</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>146</v>
@@ -2351,7 +2471,7 @@
         <v>109</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E49" s="8" t="s">
         <v>146</v>
@@ -2368,7 +2488,7 @@
         <v>108</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>146</v>
@@ -2388,10 +2508,10 @@
         <v>19</v>
       </c>
       <c r="C51" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="E51" s="8" t="s">
         <v>192</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>193</v>
       </c>
       <c r="F51" s="8" t="s">
         <v>147</v>
@@ -2408,7 +2528,7 @@
         <v>135</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F52" s="8" t="s">
         <v>147</v>
@@ -2425,7 +2545,7 @@
         <v>146</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F53" s="8" t="s">
         <v>147</v>
@@ -2442,10 +2562,10 @@
         <v>63</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F54" s="8" t="s">
         <v>147</v>
@@ -2459,10 +2579,10 @@
         <v>109</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F55" s="8" t="s">
         <v>134</v>
@@ -2476,10 +2596,10 @@
         <v>108</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F56" s="8" t="s">
         <v>147</v>
@@ -2488,7 +2608,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" s="2" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>3</v>
       </c>
@@ -2498,58 +2618,193 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>40</v>
       </c>
       <c r="B59" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C59" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C60" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C61" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>96</v>
       </c>
       <c r="B62" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C62" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C63" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C64" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>46</v>
       </c>
       <c r="B65" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C65" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="300" hidden="1" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C66" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>108</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="69" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -2562,23 +2817,32 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="225" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>41</v>
       </c>
       <c r="B70" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D70" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>120</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>121</v>
       </c>
+      <c r="D72" s="8" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
@@ -2598,7 +2862,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>83</v>
       </c>
@@ -2606,10 +2870,13 @@
         <v>84</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>190</v>
+        <v>224</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>225</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F76" s="8" t="s">
         <v>147</v>
@@ -2623,10 +2890,13 @@
         <v>120</v>
       </c>
       <c r="C77" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="E77" s="8" t="s">
         <v>211</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>212</v>
       </c>
       <c r="F77" s="8" t="s">
         <v>147</v>
@@ -2640,10 +2910,13 @@
         <v>121</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>225</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F78" s="8" t="s">
         <v>146</v>
@@ -2735,19 +3008,19 @@
         <v>127</v>
       </c>
       <c r="B86" t="s">
+        <v>202</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G86" s="8" t="s">
         <v>203</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="E86" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="F86" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="G86" s="8" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
@@ -2755,13 +3028,13 @@
         <v>128</v>
       </c>
       <c r="B87" t="s">
+        <v>207</v>
+      </c>
+      <c r="C87" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="E87" s="8" t="s">
         <v>209</v>
-      </c>
-      <c r="E87" s="8" t="s">
-        <v>210</v>
       </c>
       <c r="F87" s="8" t="s">
         <v>147</v>
@@ -2775,7 +3048,7 @@
         <v>104</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E88" s="8" t="s">
         <v>147</v>
@@ -2784,7 +3057,7 @@
         <v>147</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="90" spans="1:7" s="2" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -2839,22 +3112,22 @@
     </row>
     <row r="93" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>197</v>
+      </c>
+      <c r="B93" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="C93" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G93" s="8" t="s">
         <v>199</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="E93" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="F93" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="G93" s="8" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>

--- a/Praca magisterska/testy.xlsx
+++ b/Praca magisterska/testy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\annap\Documents\UNI\masters\Praca magisterska\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6010ADCB-4927-420F-9F55-607CDFE9545D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FD3F27-CBD6-41C1-BA8A-28787E3DEA50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{D880F8F0-0502-42C4-AF59-EACA8E54CEE9}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{D880F8F0-0502-42C4-AF59-EACA8E54CEE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="248">
   <si>
     <t>Educational:</t>
   </si>
@@ -453,12 +453,6 @@
     <t xml:space="preserve">1. Nie wszystkie elementy są reachable (rozwijane elementy menu) x3. </t>
   </si>
   <si>
-    <t xml:space="preserve">1. Nie wszystkie elementy są reachable (info icon tooltip). 2. Popupy  z info producenta nie są reachable.  </t>
-  </si>
-  <si>
-    <t>1. Nieoczekiwany focus trap z którego nie da się wyjść po otwarciu zdjęcia. 2. Nie moża ominąć otwarcia zdjęcia. 3. Nie można ręcznie schować toolipa.</t>
-  </si>
-  <si>
     <t>1. Brak linku do ominięcia headera. 2. Brak focusu na dropdownach i popupach. 3. Brak focus trap na popupie z notyfikcajmi, user menu.  4. Możliwość otwarcia błędnego elementu poprzez użycie klwaitury na menu użytkwonika. 5. Brak aktualizaji menu baneru reklamowe podczas nawigacji. 6. Brak wdocznego focusu na elementach kisty które mają obrazek jako link.7. Błędny dostęp do elementów manu, które powinny być ukryte. 8. Unreachable button do przejścia na początek strony.</t>
   </si>
   <si>
@@ -510,18 +504,9 @@
     <t>Bardzo przejrzysta nawigacja i focus</t>
   </si>
   <si>
-    <t>Brak focusu na na linku do kanału pod filmem. Brak focus trap na rozwijamyn menu pod filmem. Możliwość kliknięcia na niewidzalny element (notyfikacja -&gt; więcej info kropki). Brak focus trap na notyfikacjach/dodaj film/usermenu.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Brak focusu na nazwie/linku do filmu. Dwa elementy z tym samym linkiem obok siebie, z czego jeden nie ma focusu. </t>
   </si>
   <si>
-    <t>Anchor do więcej filmów od autora, nie przekierowuje focusu. Brak focus trap na dropdown manu ustawienia filmu. Mało widoczny focus na (…więcej) rozwinięcie info o filmie. Kliknięcie na datę dodoania komentarza odświeża strone. Kliknięcie na dodanie emotikonu do komentarza nie przenosi focusu do dropowna. Bardzo mało widoczy focus na wyborze typu emotikona.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Automatyczna transkrypcja nie na wszystkich filmach.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rozwinięcei rozszerzonego menu nie przenosi focusu do menu. Niwidczy element wybrany na klawiaturze który przenosi do strony logowania. Brak focus trap na otwearym rozszerzonym neu, które przysyłania treść strony i dalsza strona i aktywne liniki nie są widoczne. Aktywownayny i niewidoczy link który przenosi do niesprecyzownaego akrtykułu z przed 5 dni. </t>
   </si>
   <si>
@@ -717,16 +702,85 @@
     <t xml:space="preserve">Time 1w is not read properly as week. Bardzo dokładne opisanie elenetów na stronie. </t>
   </si>
   <si>
-    <t xml:space="preserve">Tabs are in wron order. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collapsable button doent say collapesed/expanded. No alt text of the user picture. Inaccessible popup/tooltio on the user info./  </t>
-  </si>
-  <si>
     <t xml:space="preserve">No error message that the comment to be posterd is emty. </t>
   </si>
   <si>
     <t xml:space="preserve">Brak focusu. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collapsable button doent say collapesed/expanded. No alt text of the user picture. </t>
+  </si>
+  <si>
+    <t>The page doesn’t center on the focused element in the friends area.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inaccessible popup/tooltio on the user info. No button to skip to main content. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Form errors are not read in screen reader. The red frame doesn’t dissaera when the erroris resolved. </t>
+  </si>
+  <si>
+    <t>Use of popups with information about subreddit and user open automaticcly which causers problems with SRs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some dropdown buttons are inaccessible. Inconsistent focus in the dropdowns. Some dropdowns do not disappear after exiting them. Button to edit user fair is inaccessible. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logout and dark mode buttons are inaccesible.  Going back to skip links brakes them  (they do not skip anythingn anymore). Skop to right sidebar link doesn't work. </t>
+  </si>
+  <si>
+    <t>Logout and dark mode buttons are inaccesible.  Going back to skip links brakes them  (they do not skip anythingn anymore). Skop to right sidebar link doesn't work. Safe search button doesn’t have focus.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use of popups with information about subreddit and user open automaticcly which causers problems with SRs. The collapsed/expanded state of buttons ios not always read correctly. Joined button is not describled well enough (just says Joined). No inromation about loading. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabs are in wrong order. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brak focusu na na linku do kanału pod filmem. Brak focus trap na rozwijamyn menu pod filmem. Możliwość kliknięcia na niewidzalny element (notyfikacja -&gt; więcej info kropki). Brak focus trap na notyfikacjach/dodaj film/usermenu. Exiting the dorpodwn moves focus outside of the page (into the broswer). Dropodwns do not dissapear after moving focus outside of them. No focus on invisible buttons (like action menu in the notifiacion item). Closing the dorpdown moveds the focus otside of the page. Clicking show less moves the focus back to the beinning oif the list. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menu button doesn't say collapsed/expanded… Expanding the menu doen;t move the focus inside it. Some links are marked  as buttons. Some dropdowns are marked as links. In navigatyion menu no information what is the cuyrrent page. Lots of elements have double tags like link-link, button-button. The video link reads the title twice. User verified icon is read as link. Loading more content has no notification read. Navigation collapsed elements are read as tabs instead of links. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Link to user's channel reads only as "go to channel" witout sataing the channel name. Some elemnts are read as "blank" or just "clickable". The added at timestamp is not always corretly read. The cappter timestamp is not always corretly ready (i.e. 0:00 is midnight). Information about how long is the video is sto correctyl stated (just a random number). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The subscribers number is not read corretly. Not clickable items are read as clickable. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anchor do więcej filmów od autora, nie przekierowuje focusu. Brak focus trap na dropdown manu ustawienia filmu. Mało widoczny focus na (…więcej) rozwinięcie info o filmie. Kliknięcie na datę dodoania komentarza odświeża strone. Kliknięcie na dodanie emotikonu do komentarza nie przenosi focusu do dropowna. Bardzo mało widoczy focus na wyborze typu emotikona. Inaccesible repot video dorpdown button. NOTE: Show transcript button is very far from the video itself. Show less button has no focus. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No info that the for is invalid. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The navigation is skipped automaticly when staring to navigate the page, which results I having to go through all the iotems to reach it. Nie można zmienić głośności. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No inforamtiuon that the seach results have loded. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dropdown user menu is not read as collapsed/expanded. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The explicit icon is not read correctly. The table with songs dos not have columns properly described which results in reading the number of litens just as a numbner with no context (same with length of the song. The information about arits is not read but the links are accessible from all of the hidden text. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Button to open a popuap is a link. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Nie wszystkie elementy są reachable (info icon tooltip). 2. Popupy  z info producenta nie są reachable.  More filters collapsible button is not reachable. Not all collapsble buttons are marked as such. Not reachabale buttonfor oppening apopup. Nopt reachable button to open a tooltip. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rating of a product is not read. Not all text about a product is read. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rating of a product is not read correctly (no labvel). Content of a tootip is not read. Button to show less info is read as "blank" . Noyt all link are read as lionks. Memory size is read incorretly. Diabled links are not indicated to be disabled. Previous price text is not read. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Nieoczekiwany focus trap z którego nie da się wyjść po otwarciu zdjęcia. 2. Nie moża ominąć otwarcia zdjęcia. 3. Nie można ręcznie schować toolipa. Tooltip doesn’t dissapear after moving to another element. Not all tooltip buttons are reachable. Closing a popup moves focus to the beginnijing of the page. Some popups do not have focus trap. </t>
   </si>
 </sst>
 </file>
@@ -1702,8 +1756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A744A367-74A6-4EC3-B153-D71CD0BA8117}">
   <dimension ref="A1:G104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1711,7 +1765,7 @@
     <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.5703125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="10" style="8" customWidth="1"/>
+    <col min="4" max="4" width="27" style="8" customWidth="1"/>
     <col min="5" max="5" width="22.140625" style="8" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" style="8" customWidth="1"/>
     <col min="7" max="7" width="21.85546875" style="8" customWidth="1"/>
@@ -1740,8 +1794,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
@@ -1751,7 +1804,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -1761,6 +1814,9 @@
       <c r="C4" s="8" t="s">
         <v>131</v>
       </c>
+      <c r="D4" s="8" t="s">
+        <v>144</v>
+      </c>
       <c r="E4" s="8" t="s">
         <v>134</v>
       </c>
@@ -1771,13 +1827,16 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>109</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>132</v>
       </c>
+      <c r="D5" s="8" t="s">
+        <v>144</v>
+      </c>
       <c r="E5" s="8" t="s">
         <v>134</v>
       </c>
@@ -1788,13 +1847,16 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>108</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>133</v>
       </c>
+      <c r="D6" s="8" t="s">
+        <v>144</v>
+      </c>
       <c r="E6" s="8" t="s">
         <v>134</v>
       </c>
@@ -1805,7 +1867,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>99</v>
       </c>
@@ -1815,6 +1877,9 @@
       <c r="C7" s="8" t="s">
         <v>137</v>
       </c>
+      <c r="D7" s="8" t="s">
+        <v>243</v>
+      </c>
       <c r="E7" s="8" t="s">
         <v>134</v>
       </c>
@@ -1825,12 +1890,15 @@
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>109</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>138</v>
+        <v>244</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>245</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>134</v>
@@ -1842,12 +1910,15 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>108</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>139</v>
+        <v>247</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>246</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>134</v>
@@ -1859,7 +1930,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="330" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="225" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -1867,7 +1938,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>134</v>
@@ -1876,15 +1947,15 @@
         <v>134</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="180" hidden="1" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>109</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>134</v>
@@ -1893,15 +1964,15 @@
         <v>134</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="210" hidden="1" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>108</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>134</v>
@@ -1910,11 +1981,10 @@
         <v>134</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:7" s="2" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -1924,7 +1994,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="180" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -1932,36 +2002,36 @@
         <v>12</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>110</v>
       </c>
       <c r="C16" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>167</v>
-      </c>
       <c r="G16" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>86</v>
       </c>
@@ -1969,37 +2039,37 @@
         <v>85</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" t="s">
         <v>110</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="165" hidden="1" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>92</v>
       </c>
@@ -2007,37 +2077,37 @@
         <v>91</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>110</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:7" s="2" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -2047,7 +2117,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -2055,53 +2125,53 @@
         <v>14</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>109</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>108</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>114</v>
       </c>
@@ -2109,53 +2179,53 @@
         <v>113</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>109</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>108</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>111</v>
       </c>
@@ -2163,53 +2233,53 @@
         <v>112</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>109</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>108</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>52</v>
       </c>
@@ -2217,53 +2287,52 @@
         <v>53</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>109</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>108</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
+        <v>153</v>
+      </c>
+    </row>
     <row r="36" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>1</v>
@@ -2274,7 +2343,7 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="285" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -2282,53 +2351,59 @@
         <v>15</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>157</v>
+        <v>233</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>234</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="210" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>109</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>158</v>
+        <v>155</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>235</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="255" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>108</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>159</v>
+        <v>237</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>236</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>160</v>
+        <v>238</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>32</v>
       </c>
@@ -2336,50 +2411,59 @@
         <v>17</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>213</v>
+        <v>239</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>241</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>109</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>213</v>
+        <v>208</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="180" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>108</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>213</v>
+        <v>208</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>242</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -2390,16 +2474,16 @@
         <v>16</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2407,16 +2491,16 @@
         <v>109</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2424,19 +2508,19 @@
         <v>108</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" s="2" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>2</v>
       </c>
@@ -2446,7 +2530,7 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>35</v>
       </c>
@@ -2454,53 +2538,53 @@
         <v>18</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>109</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>108</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>33</v>
       </c>
@@ -2508,19 +2592,19 @@
         <v>19</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>109</v>
       </c>
@@ -2528,33 +2612,33 @@
         <v>135</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>108</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="150" hidden="1" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>64</v>
       </c>
@@ -2562,50 +2646,50 @@
         <v>63</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="165" hidden="1" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>109</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F55" s="8" t="s">
         <v>134</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>108</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="58" spans="1:7" s="2" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -2626,19 +2710,19 @@
         <v>24</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
@@ -2646,19 +2730,19 @@
         <v>109</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -2666,19 +2750,19 @@
         <v>108</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="210" hidden="1" x14ac:dyDescent="0.25">
@@ -2689,19 +2773,19 @@
         <v>95</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="135" hidden="1" x14ac:dyDescent="0.25">
@@ -2709,19 +2793,19 @@
         <v>109</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="135" hidden="1" x14ac:dyDescent="0.25">
@@ -2729,19 +2813,19 @@
         <v>108</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="240" hidden="1" x14ac:dyDescent="0.25">
@@ -2752,19 +2836,19 @@
         <v>25</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="300" hidden="1" x14ac:dyDescent="0.25">
@@ -2772,19 +2856,19 @@
         <v>109</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="165" hidden="1" x14ac:dyDescent="0.25">
@@ -2792,22 +2876,23 @@
         <v>108</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="1:7" s="2" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>4</v>
       </c>
@@ -2817,52 +2902,82 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
     </row>
-    <row r="70" spans="1:7" ht="225" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>41</v>
       </c>
       <c r="B70" t="s">
         <v>26</v>
       </c>
+      <c r="C70" s="8" t="s">
+        <v>225</v>
+      </c>
       <c r="D70" s="8" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>120</v>
       </c>
+      <c r="C71" s="8" t="s">
+        <v>224</v>
+      </c>
       <c r="D71" s="8" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>121</v>
       </c>
+      <c r="C72" s="8" t="s">
+        <v>144</v>
+      </c>
       <c r="D72" s="8" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>118</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C73" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C74" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="C75" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>83</v>
       </c>
@@ -2870,59 +2985,59 @@
         <v>84</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>120</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>121</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" s="2" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>124</v>
       </c>
@@ -2932,7 +3047,7 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
     </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>36</v>
       </c>
@@ -2940,19 +3055,19 @@
         <v>27</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>70</v>
       </c>
@@ -2960,19 +3075,19 @@
         <v>90</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>68</v>
       </c>
@@ -2980,20 +3095,19 @@
         <v>67</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="1:7" s="2" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>123</v>
       </c>
@@ -3003,44 +3117,44 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
     </row>
-    <row r="86" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>127</v>
       </c>
       <c r="B86" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>128</v>
       </c>
       <c r="B87" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>105</v>
       </c>
@@ -3048,19 +3162,19 @@
         <v>104</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" s="2" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>122</v>
       </c>
@@ -3070,7 +3184,7 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
     </row>
-    <row r="91" spans="1:7" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>125</v>
       </c>
@@ -3078,19 +3192,19 @@
         <v>126</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>62</v>
       </c>
@@ -3098,40 +3212,39 @@
         <v>58</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="95" spans="1:7" s="2" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>54</v>
       </c>
@@ -3141,7 +3254,7 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
     </row>
-    <row r="96" spans="1:7" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" ht="255" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>37</v>
       </c>
@@ -3149,53 +3262,53 @@
         <v>29</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>129</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="150" hidden="1" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>130</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>73</v>
       </c>
@@ -3203,50 +3316,50 @@
         <v>72</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="210" hidden="1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="210" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>129</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>130</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="120" hidden="1" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>31</v>
       </c>
@@ -3254,50 +3367,50 @@
         <v>51</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>129</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>130</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G104" s="8" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
